--- a/medicine/Enfance/Dominique_Sampiero/Dominique_Sampiero.xlsx
+++ b/medicine/Enfance/Dominique_Sampiero/Dominique_Sampiero.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Claude Lefebvre, plus connu sous le pseudonyme de Dominique Sampiero, né le 15 novembre 1954 au Quesnoy dans l'Avesnois, est écrivain, scénariste et poète français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Claude Lefebvre, alias Dominique Sampiero[1] est issu d'un milieu ouvrier dont il continue de partager les valeurs et l'engagement, il est resté fidèle à sa région natale et qui nourrit son travail de romancier et de poète[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Claude Lefebvre, alias Dominique Sampiero est issu d'un milieu ouvrier dont il continue de partager les valeurs et l'engagement, il est resté fidèle à sa région natale et qui nourrit son travail de romancier et de poète.
 Élève à l’école normale d'instituteurs de Douai, il commence à écrire à l'âge de 16 ans et devient instituteur à l'âge de 22 ans.
-Il crée en 1985 la revue d'art et de poésie 15 / 10 qui réunira poètes, peintres et graphistes et organisera un concours annuel de poésie en publiant quelques recueils[3].
-Après avoir été directeur d’école maternelle, il quitte l'Éducation nationale en septembre 1999 pour se consacrer entièrement à l'écriture[4],[5].
-Il est notamment connu pour l'écriture de deux scénarios de longs métrages, réalisés par Bertrand Tavernier : Ça commence aujourd'hui[5] (prix FIPRESCI de la Berlinale 1999 et prix du public au Festival international du film de Saint-Sébastien) et également Holy Lola en 2004, adaptation de son roman du même nom écrit en collaboration avec Tiffany Tavernier, son ancienne épouse[6].
+Il crée en 1985 la revue d'art et de poésie 15 / 10 qui réunira poètes, peintres et graphistes et organisera un concours annuel de poésie en publiant quelques recueils.
+Après avoir été directeur d’école maternelle, il quitte l'Éducation nationale en septembre 1999 pour se consacrer entièrement à l'écriture,.
+Il est notamment connu pour l'écriture de deux scénarios de longs métrages, réalisés par Bertrand Tavernier : Ça commence aujourd'hui (prix FIPRESCI de la Berlinale 1999 et prix du public au Festival international du film de Saint-Sébastien) et également Holy Lola en 2004, adaptation de son roman du même nom écrit en collaboration avec Tiffany Tavernier, son ancienne épouse.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auteur de nombreux romans et de nombreuses proses poétiques, Dominique Sampiero reçoit le prix du roman populiste pour Le Rebutant (Gallimard, « L'un et l'autre », 2003)[7], le prix Max-Pol-Fouchet pour La Vie pauvre (éd. La différence, 1992)[7] et le prix Sorcières pour P'tite Mère (Rue du monde, 2002).
-Puis, il reçoit en 2014 le prix Robert Ganzo[8] (décerné par le festival Étonnants Voyageurs pour l'ensemble de son œuvre[7]) et notamment pour son recueil La vie est chaude (Bruno Doucey, 2013)[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auteur de nombreux romans et de nombreuses proses poétiques, Dominique Sampiero reçoit le prix du roman populiste pour Le Rebutant (Gallimard, « L'un et l'autre », 2003), le prix Max-Pol-Fouchet pour La Vie pauvre (éd. La différence, 1992) et le prix Sorcières pour P'tite Mère (Rue du monde, 2002).
+Puis, il reçoit en 2014 le prix Robert Ganzo (décerné par le festival Étonnants Voyageurs pour l'ensemble de son œuvre) et notamment pour son recueil La vie est chaude (Bruno Doucey, 2013).
 </t>
         </is>
       </c>
@@ -580,13 +596,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Textes brefs - Poésie
+          <t>Textes brefs - Poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Groupe Gallimard
 Un livre s’écrit tôt le matin (2000. L’arbalète)
 L'Idiot du voyage (2001. L’arbalète)
 Celui qui dit les mots avec sa bouche (2002. L'arbalète)
 Éditions Lettres Vives
-La Fraîche Évidence (1995)[10]
+La Fraîche Évidence (1995)
 Les Pluies battantes (1996)
 Retour au sang (1997)
 La Chambre au milieu des eaux (1998)
@@ -595,7 +617,7 @@
 Patience de la blessure (2002)
 Carnet d’un buveur de ciel (2007)
 Le Maître de la poussière sur ma bouche (2009)
-Bégaiement de l’impossible et de l’impensable (2012)[4]
+Bégaiement de l’impossible et de l’impensable (2012)
 Chez d’autres éditeurs
 Sève, la nuit des Sources (1987. Cahiers Froissart)
 Pluriel Silence (1988. Unimuse. Prix Casterman)
@@ -604,7 +626,7 @@
 La Vie pauvre (1992. La Différence. Prix Max-Pol Fouchet)
 Lettre par la fenêtre (1995. Dumerchez)
 La Claire Audience (1995. Cherche-Midi)
-Épreuve de l’air (1998. Éditions du Laquet[11])
+Épreuve de l’air (1998. Éditions du Laquet)
 La Chair de l’image (1998. Paroles d’Aube)
 La Page claire (1999. Alfil)
 Âme sœur (2001. Marais du Livre éditions)
@@ -617,25 +639,167 @@
 Avant la chair (2015. Le Passeur Éditeur, collection Hautes Rives)
 Pensées de porcelaine noire (2016. La Rumeur Libre)
 Opus 1 (2016. Textes poétiques. La rumeur libre)
-Nouvelles
-Centre-ville (1995. Paroles d’Aube)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Centre-ville (1995. Paroles d’Aube)
 Histoires à deux. Ou presque (1995. La Bartavelle)
-Territoire du papillon (2009. Alphabet de l’espace)
-Récits
-La Lumière du deuil (1997. Verdier puis Folio/Gallimard)[12]
+Territoire du papillon (2009. Alphabet de l’espace)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La Lumière du deuil (1997. Verdier puis Folio/Gallimard)
 Le Dragon et la Ramure (1998. Verdier puis Folio/Gallimard)
-Le Temps captif (1999. Flammarion)[13]
-Femme buvant dans une cour (2000. Flohic[14])
-Romans
+Le Temps captif (1999. Flammarion)
+Femme buvant dans une cour (2000. Flohic)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L'Odalisque (2000. Flammarion)
 Les fruits poussent dans les arbres (2002. Flammarion)
-Le Rebutant (2003. Gallimard)[15]. Prix du Roman Populiste
+Le Rebutant (2003. Gallimard). Prix du Roman Populiste
 Le Dieu des femmes (2004. Grasset)
 Holy Lola (2004. Grasset), en collaboration avec Tiffany Tavernier
-La Petite Présence (2006. Grasset)[16]
-Les Encombrants (2009. Grasset)[17]
-Le Sentiment de l’inachevé (2015. Gallimard)[18]
-Théâtre
+La Petite Présence (2006. Grasset)
+Les Encombrants (2009. Grasset)
+Le Sentiment de l’inachevé (2015. Gallimard)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Révolte des outils (2000. Forbach. Inédit)
 Épreuve de la terre (2000. Production France Culture)
 Femme à la fenêtre (2000. Production France Culture. Inédit)
@@ -646,10 +810,80 @@
 Le bleu est au fond (2013. Création en Coglais. Bretagne)
 Sparkling Letters (2014. Création Ligne de front)
 Known unto God ou l’incroyable histoire de monsieur Topowski (2014. Éditions Invenit)
-Essai
-L’Espace du poème (1998. Entretien avec Bernard Noël, P.O.L)
-Littérature jeunesse
-P’tite Mère (2001). France Culture - Les histoires du pince-oreille (Éd. Rue du Monde)[19]. Prix Sorcière 2003. Prix Marguerite Audoux 2004 des collèges
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L’Espace du poème (1998. Entretien avec Bernard Noël, P.O.L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+P’tite Mère (2001). France Culture - Les histoires du pince-oreille (Éd. Rue du Monde). Prix Sorcière 2003. Prix Marguerite Audoux 2004 des collèges
 Poule ou Coq (2001. France Culture. Les histoires du pince-oreille)
 Tête à flaques (2001. France Culture. Les histoires du pince-oreille)
 Contes de la page claire (Alfil éditions. 2001. France Culture. Les histoires du pince-oreille)
@@ -660,27 +894,210 @@
 Nuit claire (2013. Ville de Guyancourt)
 Les bébés ont un goût salé (2014. Ed Rue du Monde)
 La petite fille qui avait perdu sa langue (2017. Gallimard Jeunesse)
-Scénarios
-Longs métrages
-Ça commence aujourd’hui (1997)[20],[21], réalisation : Bertrand Tavernier. Prix FIPRESCI de la Berlinale
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Longs métrages</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ça commence aujourd’hui (1997) réalisation : Bertrand Tavernier. Prix FIPRESCI de la Berlinale
 Un ange à la mer (1999-2000), réalisation : Frédéric Dumont
 Le Radin (2001), comédie
 Holy Lola (2003), réalisation : Bertrand Tavernier
 Fils unique (2012), réalisation : Miel Van Hoogenbemt. Prix Jeune regard Festival d’Arras)
-Les Mains bleues (2020), réalisation : Bruno Lajara
-Téléfilms
-Cet été-là (2009), réalisation : Élisabeth Rappeneau (Prod MFP – France 3)
-Documentaires
-Volcan, mon amour (Production Boréales)
+Les Mains bleues (2020), réalisation : Bruno Lajara</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Téléfilms</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cet été-là (2009), réalisation : Élisabeth Rappeneau (Prod MFP – France 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Documentaires</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Volcan, mon amour (Production Boréales)
 Métalovoice, Espèce H (2005. réalisation : Philippe Claude et Philippe Lachambre. Productions du Sommeil)
-L'Héritage du silence (2015. sur Jacques Bonnaffé. Production Cercle bleu)
-Écriture et réalisation courts métrages
-Notre Dame des Loques (2004. Prod Jean Rostand. Écriture et réalisation : 8 min)
+L'Héritage du silence (2015. sur Jacques Bonnaffé. Production Cercle bleu)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Écriture et réalisation courts métrages</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Notre Dame des Loques (2004. Prod Jean Rostand. Écriture et réalisation : 8 min)
 On est méchant avec ceux qu’on aime (2010. Prod Jean Rostand. Écriture et réalisation : 12 min)
 La Dormeuse (2013. Prod Association du Pôle. Écriture et réalisation : 13 min)
 Sparkling Letters (2014. Création ligne de front : 13 min)
-Les Âmes craintives (2015. Prod Jean Rostand. Écriture et réalisation : 12 min)
-Livres d'artistes
+Les Âmes craintives (2015. Prod Jean Rostand. Écriture et réalisation : 12 min)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Sampiero</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Livres d'artistes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Petit Rituel de la terre (1990. Dessins, collages de Michel Le Sage)
 Bruits, tapages, esclandres (1991. Peintures de Jean-Luc Herman. Éditions de la Séranne)
 Cendres de la nuit éteinte (1992. Peintures de Jean-Luc Herman. Éditions de la Séranne)
